--- a/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_general.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.02435</v>
+        <v>-0.0281</v>
       </c>
       <c r="E2">
-        <v>0.007300000000000001</v>
+        <v>-0.0524</v>
       </c>
       <c r="F2">
-        <v>0.06999999999999999</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="G2">
-        <v>0.08486721009729162</v>
+        <v>0.1359569136741537</v>
       </c>
       <c r="H2">
-        <v>0.08486721009729162</v>
+        <v>0.1359569136741537</v>
       </c>
       <c r="I2">
-        <v>0.09815378239372821</v>
+        <v>0.08102797600572283</v>
       </c>
       <c r="J2">
-        <v>0.08587852491475034</v>
+        <v>0.06734293369177539</v>
       </c>
       <c r="K2">
-        <v>5273.2</v>
+        <v>4162.2</v>
       </c>
       <c r="L2">
-        <v>0.06666295839317138</v>
+        <v>0.05544580306629066</v>
       </c>
       <c r="M2">
-        <v>3654.1</v>
+        <v>4073.21</v>
       </c>
       <c r="N2">
-        <v>0.04758636676181943</v>
+        <v>0.05221682518072397</v>
       </c>
       <c r="O2">
-        <v>0.6929568383524236</v>
+        <v>0.9786194800826487</v>
       </c>
       <c r="P2">
-        <v>3413</v>
+        <v>3402.01</v>
       </c>
       <c r="Q2">
-        <v>0.04444658596045256</v>
+        <v>0.04361232576593762</v>
       </c>
       <c r="R2">
-        <v>0.6472350754759918</v>
+        <v>0.8173586084282352</v>
       </c>
       <c r="S2">
-        <v>241.1</v>
+        <v>671.1999999999999</v>
       </c>
       <c r="T2">
-        <v>0.06598067923702142</v>
+        <v>0.1647840401059606</v>
       </c>
       <c r="U2">
-        <v>11465.4</v>
+        <v>15808.7</v>
       </c>
       <c r="V2">
-        <v>0.1493108369970621</v>
+        <v>0.2026608311956691</v>
       </c>
       <c r="W2">
-        <v>0.1052143889634197</v>
+        <v>0.07065985181075603</v>
       </c>
       <c r="X2">
-        <v>0.05229373684653373</v>
+        <v>0.04786833020029316</v>
       </c>
       <c r="Y2">
-        <v>0.05292065211688599</v>
+        <v>0.02279152161046286</v>
       </c>
       <c r="Z2">
-        <v>1.598073441546216</v>
+        <v>1.478960620365189</v>
       </c>
       <c r="AA2">
-        <v>0.1194325521610516</v>
+        <v>0.09178949762418726</v>
       </c>
       <c r="AB2">
-        <v>0.0468435307664169</v>
+        <v>0.04102086804008107</v>
       </c>
       <c r="AC2">
-        <v>0.07249920158216236</v>
+        <v>0.05100534755634102</v>
       </c>
       <c r="AD2">
-        <v>17290.5</v>
+        <v>20340.3</v>
       </c>
       <c r="AE2">
-        <v>1975.001217891769</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>19265.50121789177</v>
+        <v>20340.3</v>
       </c>
       <c r="AG2">
-        <v>7800.101217891768</v>
+        <v>4531.599999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2005688550499104</v>
+        <v>0.2068238667561467</v>
       </c>
       <c r="AI2">
-        <v>0.2795581873291555</v>
+        <v>0.2868572250569052</v>
       </c>
       <c r="AJ2">
-        <v>0.09221187538303115</v>
+        <v>0.05490366173838979</v>
       </c>
       <c r="AK2">
-        <v>0.1357750663206031</v>
+        <v>0.0822451346402002</v>
       </c>
       <c r="AL2">
-        <v>530.1</v>
+        <v>589.95</v>
       </c>
       <c r="AM2">
-        <v>528.59</v>
+        <v>589.95</v>
       </c>
       <c r="AN2">
-        <v>1.963736101488944</v>
+        <v>3.083826071136178</v>
       </c>
       <c r="AO2">
-        <v>14.79890586681758</v>
+        <v>10.31036528519366</v>
       </c>
       <c r="AP2">
-        <v>0.885881863268381</v>
+        <v>0.687043269959671</v>
       </c>
       <c r="AQ2">
-        <v>14.84118125579371</v>
+        <v>10.31036528519366</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bâloise Holding AG (SWX:BALN)</t>
+          <t>Zurich Insurance Group AG (SWX:ZURN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0267</v>
+        <v>-0.04389999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0306</v>
+        <v>-0.0329</v>
       </c>
       <c r="F3">
-        <v>0.101</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="G3">
-        <v>-0.003309407703687469</v>
+        <v>0.1296313055439917</v>
       </c>
       <c r="H3">
-        <v>-0.003309407703687469</v>
+        <v>0.1296313055439917</v>
       </c>
       <c r="I3">
-        <v>0.0966057019454396</v>
+        <v>0.09272566019294468</v>
       </c>
       <c r="J3">
-        <v>0.0899465134496919</v>
+        <v>0.07094095805832135</v>
       </c>
       <c r="K3">
-        <v>664.6</v>
+        <v>3287</v>
       </c>
       <c r="L3">
-        <v>0.07282888608843352</v>
+        <v>0.05949428948940252</v>
       </c>
       <c r="M3">
-        <v>448.4</v>
+        <v>3352</v>
       </c>
       <c r="N3">
-        <v>0.05352368220015279</v>
+        <v>0.05332230405803096</v>
       </c>
       <c r="O3">
-        <v>0.6746915437857357</v>
+        <v>1.019774870702769</v>
       </c>
       <c r="P3">
-        <v>285.5</v>
+        <v>3037</v>
       </c>
       <c r="Q3">
-        <v>0.03407897249809014</v>
+        <v>0.04831140734613366</v>
       </c>
       <c r="R3">
-        <v>0.4295817032801685</v>
+        <v>0.923942804989352</v>
       </c>
       <c r="S3">
-        <v>162.9</v>
+        <v>315</v>
       </c>
       <c r="T3">
-        <v>0.3632917038358608</v>
+        <v>0.09397374701670644</v>
       </c>
       <c r="U3">
-        <v>3489.4</v>
+        <v>8689</v>
       </c>
       <c r="V3">
-        <v>0.4165154698242933</v>
+        <v>0.1382212112053195</v>
       </c>
       <c r="W3">
-        <v>0.108382257012394</v>
+        <v>0.09982082662698533</v>
       </c>
       <c r="X3">
-        <v>0.05227150115136549</v>
+        <v>0.04695387245988113</v>
       </c>
       <c r="Y3">
-        <v>0.05611075586102851</v>
+        <v>0.0528669541671042</v>
       </c>
       <c r="Z3">
-        <v>2.007358811992302</v>
+        <v>1.491482871257727</v>
       </c>
       <c r="AA3">
-        <v>0.1805549263812232</v>
+        <v>0.1058072238145991</v>
       </c>
       <c r="AB3">
-        <v>0.04684423159643147</v>
+        <v>0.04096976422770443</v>
       </c>
       <c r="AC3">
-        <v>0.1337106947847917</v>
+        <v>0.06483745958689471</v>
       </c>
       <c r="AD3">
-        <v>1865.2</v>
+        <v>15280</v>
       </c>
       <c r="AE3">
-        <v>51.62333448445437</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1916.823334484454</v>
+        <v>15280</v>
       </c>
       <c r="AG3">
-        <v>-1572.576665515546</v>
+        <v>6591</v>
       </c>
       <c r="AH3">
-        <v>0.1862001660708321</v>
+        <v>0.1955389478264208</v>
       </c>
       <c r="AI3">
-        <v>0.2210276601268355</v>
+        <v>0.30536181778213</v>
       </c>
       <c r="AJ3">
-        <v>-0.231090561812847</v>
+        <v>0.0948973421257235</v>
       </c>
       <c r="AK3">
-        <v>-0.3034149965237659</v>
+        <v>0.1593954050785973</v>
       </c>
       <c r="AL3">
-        <v>68.3</v>
+        <v>381</v>
       </c>
       <c r="AM3">
-        <v>68.3</v>
+        <v>381</v>
       </c>
       <c r="AN3">
-        <v>1.926859504132231</v>
+        <v>2.809339952197095</v>
       </c>
       <c r="AO3">
-        <v>12.78623718887262</v>
+        <v>13.44619422572178</v>
       </c>
       <c r="AP3">
-        <v>-1.624562670987134</v>
+        <v>1.211803640375069</v>
       </c>
       <c r="AQ3">
-        <v>12.78623718887262</v>
+        <v>13.44619422572178</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zurich Insurance Group AG (SWX:ZURN)</t>
+          <t>Bâloise Holding AG (SWX:BALN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,124 +865,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.04190000000000001</v>
+        <v>-0.0314</v>
       </c>
       <c r="E4">
-        <v>-0.016</v>
-      </c>
-      <c r="F4">
-        <v>0.039</v>
+        <v>-0.0479</v>
       </c>
       <c r="G4">
-        <v>0.101081927054981</v>
+        <v>0.2572183931931794</v>
       </c>
       <c r="H4">
-        <v>0.101081927054981</v>
+        <v>0.2572183931931794</v>
       </c>
       <c r="I4">
-        <v>0.1035907540232244</v>
+        <v>0.07153165009986262</v>
       </c>
       <c r="J4">
-        <v>0.07797073908967495</v>
+        <v>0.05646877887870726</v>
       </c>
       <c r="K4">
-        <v>3966</v>
+        <v>503.6</v>
       </c>
       <c r="L4">
-        <v>0.06746733805117039</v>
+        <v>0.05813966912571145</v>
       </c>
       <c r="M4">
-        <v>2860</v>
+        <v>648.3</v>
       </c>
       <c r="N4">
-        <v>0.0479172740097376</v>
+        <v>0.08110846991117227</v>
       </c>
       <c r="O4">
-        <v>0.7211296016137166</v>
+        <v>1.287331215250198</v>
       </c>
       <c r="P4">
-        <v>2811</v>
+        <v>303.5</v>
       </c>
       <c r="Q4">
-        <v>0.04709631372075958</v>
+        <v>0.03797072438383586</v>
       </c>
       <c r="R4">
-        <v>0.7087745839636914</v>
+        <v>0.602660841938046</v>
       </c>
       <c r="S4">
-        <v>49</v>
+        <v>344.8</v>
       </c>
       <c r="T4">
-        <v>0.01713286713286713</v>
+        <v>0.5318525374055221</v>
       </c>
       <c r="U4">
-        <v>6689</v>
+        <v>4128.8</v>
       </c>
       <c r="V4">
-        <v>0.1120694565913059</v>
+        <v>0.516551982985112</v>
       </c>
       <c r="W4">
-        <v>0.1334050926704564</v>
+        <v>0.07456874213370845</v>
       </c>
       <c r="X4">
-        <v>0.05306733411888222</v>
+        <v>0.0487827879407052</v>
       </c>
       <c r="Y4">
-        <v>0.08033775855157423</v>
+        <v>0.02578595419300325</v>
       </c>
       <c r="Z4">
-        <v>1.578746413135941</v>
+        <v>1.688709960423449</v>
       </c>
       <c r="AA4">
-        <v>0.1230960246673827</v>
+        <v>0.09535938934542224</v>
       </c>
       <c r="AB4">
-        <v>0.04681980149136918</v>
+        <v>0.04107197185245769</v>
       </c>
       <c r="AC4">
-        <v>0.07627622317601349</v>
+        <v>0.05428741749296454</v>
       </c>
       <c r="AD4">
-        <v>13864</v>
+        <v>2493.1</v>
       </c>
       <c r="AE4">
-        <v>1872.605577493895</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>15736.6055774939</v>
+        <v>2493.1</v>
       </c>
       <c r="AG4">
-        <v>9047.605577493896</v>
+        <v>-1635.7</v>
       </c>
       <c r="AH4">
-        <v>0.2086451897009475</v>
+        <v>0.2377528347049904</v>
       </c>
       <c r="AI4">
-        <v>0.312789031196507</v>
+        <v>0.2755202404765325</v>
       </c>
       <c r="AJ4">
-        <v>0.1316325424072901</v>
+        <v>-0.2572947635002282</v>
       </c>
       <c r="AK4">
-        <v>0.2074111087319058</v>
+        <v>-0.3324661070346959</v>
       </c>
       <c r="AL4">
-        <v>415</v>
+        <v>153.3</v>
       </c>
       <c r="AM4">
-        <v>415</v>
+        <v>153.3</v>
       </c>
       <c r="AN4">
-        <v>1.99023830031582</v>
+        <v>3.550918672553767</v>
       </c>
       <c r="AO4">
-        <v>14.89397590361446</v>
+        <v>4.041748206131768</v>
       </c>
       <c r="AP4">
-        <v>1.298823654535443</v>
+        <v>-2.329725110383137</v>
       </c>
       <c r="AQ4">
-        <v>14.89397590361446</v>
+        <v>4.041748206131768</v>
       </c>
     </row>
     <row r="5">
@@ -1002,46 +999,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.022</v>
+        <v>-0.0248</v>
       </c>
       <c r="E5">
-        <v>-0.0223</v>
+        <v>-0.05690000000000001</v>
       </c>
       <c r="G5">
-        <v>0.1470059880239521</v>
+        <v>0.1472703257998239</v>
       </c>
       <c r="H5">
-        <v>0.1470059880239521</v>
+        <v>0.1472703257998239</v>
       </c>
       <c r="I5">
-        <v>0.1400449101796407</v>
+        <v>0.1188729087173466</v>
       </c>
       <c r="J5">
-        <v>0.1283338375513781</v>
+        <v>0.1075880430075628</v>
       </c>
       <c r="K5">
-        <v>131.5</v>
+        <v>126.7</v>
       </c>
       <c r="L5">
-        <v>0.09842814371257486</v>
+        <v>0.09297035515115938</v>
       </c>
       <c r="M5">
-        <v>50.3</v>
+        <v>51.9</v>
       </c>
       <c r="N5">
-        <v>0.02892799631930067</v>
+        <v>0.03284394380458169</v>
       </c>
       <c r="O5">
-        <v>0.382509505703422</v>
+        <v>0.409629044988161</v>
       </c>
       <c r="P5">
-        <v>50.3</v>
+        <v>51.9</v>
       </c>
       <c r="Q5">
-        <v>0.02892799631930067</v>
+        <v>0.03284394380458169</v>
       </c>
       <c r="R5">
-        <v>0.382509505703422</v>
+        <v>0.409629044988161</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1050,31 +1047,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>236.1</v>
+        <v>192</v>
       </c>
       <c r="V5">
-        <v>0.1357832988267771</v>
+        <v>0.1215036071383369</v>
       </c>
       <c r="W5">
-        <v>0.07388470614675806</v>
+        <v>0.0667509614878036</v>
       </c>
       <c r="X5">
-        <v>0.04704689966640929</v>
+        <v>0.04049632828323475</v>
       </c>
       <c r="Y5">
-        <v>0.02683780648034877</v>
+        <v>0.02625463320456885</v>
       </c>
       <c r="Z5">
-        <v>0.9020931802835922</v>
+        <v>0.8199759326113116</v>
       </c>
       <c r="AA5">
-        <v>0.1157690796547205</v>
+        <v>0.08821960590295226</v>
       </c>
       <c r="AB5">
-        <v>0.04704689966640929</v>
+        <v>0.04049632828323475</v>
       </c>
       <c r="AC5">
-        <v>0.06872217998831125</v>
+        <v>0.04772327761971751</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1086,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-236.1</v>
+        <v>-192</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1095,25 +1092,28 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.1571171890596925</v>
+        <v>-0.1383086010661288</v>
       </c>
       <c r="AK5">
-        <v>-0.142057761732852</v>
+        <v>-0.1028112449799197</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="AM5">
-        <v>-1.51</v>
+        <v>8.65</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>18.72832369942196</v>
+      </c>
       <c r="AP5">
-        <v>-1.168811881188119</v>
+        <v>-1.081081081081081</v>
       </c>
       <c r="AQ5">
-        <v>-123.9072847682119</v>
+        <v>18.72832369942196</v>
       </c>
     </row>
     <row r="6">
@@ -1133,121 +1133,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0288</v>
+        <v>0.00221</v>
       </c>
       <c r="E6">
-        <v>0.0561</v>
+        <v>-0.0824</v>
       </c>
       <c r="G6">
-        <v>0.06137832381377512</v>
+        <v>0.06282289518286331</v>
       </c>
       <c r="H6">
-        <v>0.06137832381377512</v>
+        <v>0.06282289518286331</v>
       </c>
       <c r="I6">
-        <v>0.06148439558251745</v>
+        <v>0.01817402135958016</v>
       </c>
       <c r="J6">
-        <v>0.05531313976154733</v>
+        <v>0.01571824627667969</v>
       </c>
       <c r="K6">
-        <v>511.1</v>
+        <v>244.9</v>
       </c>
       <c r="L6">
-        <v>0.05185200215077763</v>
+        <v>0.02500459455596169</v>
       </c>
       <c r="M6">
-        <v>295.4</v>
+        <v>21.01</v>
       </c>
       <c r="N6">
-        <v>0.04228335862128196</v>
+        <v>0.003772331448065356</v>
       </c>
       <c r="O6">
-        <v>0.5779690862844844</v>
+        <v>0.08579011841567986</v>
       </c>
       <c r="P6">
-        <v>266.2</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.03810369013197446</v>
+        <v>0.001725469072627704</v>
       </c>
       <c r="R6">
-        <v>0.5208374095089023</v>
+        <v>0.03924050632911392</v>
       </c>
       <c r="S6">
-        <v>29.19999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="T6">
-        <v>0.09884901828029787</v>
+        <v>0.5425987624940505</v>
       </c>
       <c r="U6">
-        <v>1050.9</v>
+        <v>2798.9</v>
       </c>
       <c r="V6">
-        <v>0.150425123815522</v>
+        <v>0.5025406230361792</v>
       </c>
       <c r="W6">
-        <v>0.1020465209144455</v>
+        <v>0.04300187880809819</v>
       </c>
       <c r="X6">
-        <v>0.05231597254170198</v>
+        <v>0.05274200050080584</v>
       </c>
       <c r="Y6">
-        <v>0.04973054837274347</v>
+        <v>-0.009740121692707653</v>
       </c>
       <c r="Z6">
-        <v>1.580398231150464</v>
+        <v>1.4147539326005</v>
       </c>
       <c r="AA6">
-        <v>0.0874167882385278</v>
+        <v>0.02223745073351576</v>
       </c>
       <c r="AB6">
-        <v>0.04684282993640233</v>
+        <v>0.04126023328539066</v>
       </c>
       <c r="AC6">
-        <v>0.04057395830212547</v>
+        <v>-0.0190227825518749</v>
       </c>
       <c r="AD6">
-        <v>1561.3</v>
+        <v>2567.2</v>
       </c>
       <c r="AE6">
-        <v>50.77230591341907</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1612.072305913419</v>
+        <v>2567.2</v>
       </c>
       <c r="AG6">
-        <v>561.172305913419</v>
+        <v>-231.7000000000003</v>
       </c>
       <c r="AH6">
-        <v>0.1874879334543434</v>
+        <v>0.3155087443312399</v>
       </c>
       <c r="AI6">
-        <v>0.2006794218354934</v>
+        <v>0.2630273969795701</v>
       </c>
       <c r="AJ6">
-        <v>0.07435333559386445</v>
+        <v>-0.04340739630559412</v>
       </c>
       <c r="AK6">
-        <v>0.08037216518391342</v>
+        <v>-0.03328401304354076</v>
       </c>
       <c r="AL6">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="AM6">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="AN6">
-        <v>2.334130662281357</v>
+        <v>9.264525442078671</v>
       </c>
       <c r="AO6">
-        <v>12.89529914529915</v>
+        <v>3.787234042553191</v>
       </c>
       <c r="AP6">
-        <v>0.8389479831266541</v>
+        <v>-0.836160230963552</v>
       </c>
       <c r="AQ6">
-        <v>12.89529914529915</v>
+        <v>3.787234042553191</v>
       </c>
     </row>
   </sheetData>
